--- a/GeneralLedger/GLTestData.xlsx
+++ b/GeneralLedger/GLTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niraj\PycharmProjects\Falcon\GeneralLedger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C522C991-A43A-4AC6-8A81-EA6FD6827712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238972ED-436A-4CA6-96BD-0A7E44E531A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E61BD633-247E-4C96-8561-C801128B9409}"/>
   </bookViews>
